--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/failures/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E1E89-B1A1-0B4D-991F-771FD0D2A970}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C80E1E89-B1A1-0B4D-991F-771FD0D2A970}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="15760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario1" sheetId="2" r:id="rId2"/>
-    <sheet name="Scenario2" sheetId="5" r:id="rId3"/>
-    <sheet name="Scenario3" sheetId="6" r:id="rId4"/>
-    <sheet name="Scenario4" sheetId="7" r:id="rId5"/>
-    <sheet name="Scenario5" sheetId="8" r:id="rId6"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario1" r:id="rId2" sheetId="2"/>
+    <sheet name="Scenario2" r:id="rId3" sheetId="5"/>
+    <sheet name="Scenario3" r:id="rId4" sheetId="6"/>
+    <sheet name="Scenario4" r:id="rId5" sheetId="7"/>
+    <sheet name="Scenario5" r:id="rId6" sheetId="8"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -34,7 +34,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -50,7 +50,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1807,13 +1807,20 @@
   </si>
   <si>
     <t>EndLoopIf( ${nexial.scope.currentIteration} = 3 )</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1890,8 +1897,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1910,8 +2018,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1949,152 +2210,526 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="54">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2248,7 +2883,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2273,10 +2908,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2311,7 +2946,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2346,7 +2981,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2440,21 +3075,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2471,7 +3106,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2523,26 +3158,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2634,7 +3269,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2726,7 +3361,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2812,7 +3447,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2895,7 +3530,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2969,7 +3604,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3037,7 +3672,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3099,7 +3734,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3790,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3202,7 +3837,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3243,7 +3878,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3281,7 +3916,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3298,7 +3933,7 @@
         <v>385</v>
       </c>
       <c r="M12" t="s">
-        <v>431</v>
+        <v>579</v>
       </c>
       <c r="N12" t="s">
         <v>516</v>
@@ -3319,7 +3954,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3336,7 +3971,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="Q13" t="s">
         <v>92</v>
@@ -3354,7 +3989,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3371,7 +4006,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="Q14" t="s">
         <v>93</v>
@@ -3389,7 +4024,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3403,7 +4038,7 @@
         <v>482</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>486</v>
@@ -3421,7 +4056,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3435,7 +4070,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -3453,7 +4088,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3466,6 +4101,9 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>488</v>
       </c>
@@ -3476,7 +4114,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3496,7 +4134,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3516,7 +4154,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3536,7 +4174,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3556,7 +4194,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3576,7 +4214,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -3596,7 +4234,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -3616,7 +4254,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3636,7 +4274,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3656,7 +4294,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3676,7 +4314,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3693,7 +4331,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>409</v>
       </c>
@@ -3710,7 +4348,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -3724,7 +4362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>62</v>
       </c>
@@ -3735,7 +4373,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>63</v>
       </c>
@@ -3746,7 +4384,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>64</v>
       </c>
@@ -3757,7 +4395,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>65</v>
       </c>
@@ -3768,7 +4406,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>66</v>
       </c>
@@ -3779,7 +4417,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>67</v>
       </c>
@@ -3790,7 +4428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>68</v>
       </c>
@@ -3801,7 +4439,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>69</v>
       </c>
@@ -3812,7 +4450,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>263</v>
       </c>
@@ -3820,7 +4458,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
@@ -3828,7 +4466,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
@@ -3836,7 +4474,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>285</v>
       </c>
@@ -3844,7 +4482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>296</v>
       </c>
@@ -3852,7 +4490,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>297</v>
       </c>
@@ -3860,7 +4498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>339</v>
       </c>
@@ -3868,7 +4506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>338</v>
       </c>
@@ -3876,7 +4514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>207</v>
       </c>
@@ -3884,7 +4522,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>316</v>
       </c>
@@ -3892,7 +4530,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>335</v>
       </c>
@@ -3900,570 +4538,575 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>363</v>
       </c>
       <c r="Y50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="G51" t="s">
         <v>298</v>
       </c>
       <c r="Y51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="G52" t="s">
         <v>351</v>
       </c>
       <c r="Y52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="G53" t="s">
         <v>327</v>
       </c>
       <c r="Y53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="G54" t="s">
         <v>264</v>
       </c>
       <c r="Y54" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="G55" t="s">
         <v>288</v>
       </c>
       <c r="Y55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="G56" t="s">
         <v>289</v>
       </c>
       <c r="Y56" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="G57" t="s">
         <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="G58" t="s">
         <v>299</v>
       </c>
       <c r="Y58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="G59" t="s">
         <v>308</v>
       </c>
       <c r="Y59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="G60" t="s">
         <v>333</v>
       </c>
       <c r="Y60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="G61" t="s">
         <v>305</v>
       </c>
       <c r="Y61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="G62" t="s">
         <v>306</v>
       </c>
       <c r="Y62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="G63" t="s">
         <v>364</v>
       </c>
       <c r="Y63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="G64" t="s">
         <v>365</v>
       </c>
       <c r="Y64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="G65" t="s">
         <v>341</v>
       </c>
       <c r="Y65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="G66" t="s">
         <v>309</v>
       </c>
       <c r="Y66" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="G67" t="s">
         <v>265</v>
       </c>
       <c r="Y67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="G68" t="s">
         <v>520</v>
       </c>
       <c r="Y68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="G69" t="s">
         <v>310</v>
       </c>
       <c r="Y69" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="G70" t="s">
         <v>405</v>
       </c>
       <c r="Y70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="G71" t="s">
         <v>300</v>
       </c>
       <c r="Y71" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="G72" t="s">
         <v>406</v>
       </c>
       <c r="Y72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="G73" t="s">
         <v>258</v>
       </c>
       <c r="Y73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="G74" t="s">
         <v>505</v>
       </c>
       <c r="Y74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="G75" t="s">
         <v>340</v>
       </c>
       <c r="Y75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="G76" t="s">
         <v>276</v>
       </c>
       <c r="Y76" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="G77" t="s">
         <v>282</v>
       </c>
       <c r="Y77" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="G78" t="s">
         <v>287</v>
       </c>
       <c r="Y78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="G79" t="s">
         <v>424</v>
       </c>
       <c r="Y79" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="G80" t="s">
         <v>328</v>
       </c>
       <c r="Y80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="G81" t="s">
         <v>266</v>
       </c>
       <c r="Y81" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="G82" t="s">
         <v>277</v>
       </c>
       <c r="Y82" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="G83" t="s">
         <v>283</v>
       </c>
       <c r="Y83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="G84" t="s">
         <v>272</v>
       </c>
       <c r="Y84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="G85" t="s">
         <v>523</v>
       </c>
       <c r="Y85" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="G86" t="s">
         <v>267</v>
       </c>
       <c r="Y86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="G87" t="s">
         <v>284</v>
       </c>
       <c r="Y87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="G88" t="s">
         <v>268</v>
       </c>
       <c r="Y88" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="G89" t="s">
         <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="G90" t="s">
         <v>301</v>
       </c>
       <c r="Y90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="G91" t="s">
         <v>307</v>
       </c>
       <c r="Y91" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="G92" t="s">
         <v>291</v>
       </c>
       <c r="Y92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="G93" t="s">
         <v>336</v>
       </c>
       <c r="Y93" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="G94" t="s">
         <v>273</v>
       </c>
       <c r="Y94" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="G95" t="s">
         <v>274</v>
       </c>
       <c r="Y95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y96" t="s">
+    <row r="97">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y97" t="s">
+    <row r="98">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y98" t="s">
+    <row r="99">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="102" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="28.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="20.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +5137,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4513,7 +5156,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4530,7 +5173,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4575,7 +5218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>531</v>
       </c>
@@ -4600,7 +5243,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4623,7 +5266,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>537</v>
@@ -4648,7 +5291,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4671,7 +5314,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>538</v>
       </c>
@@ -4696,7 +5339,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4719,7 +5362,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4742,7 +5385,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4759,7 +5402,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4776,7 +5419,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4793,7 +5436,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4810,7 +5453,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4827,7 +5470,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4844,7 +5487,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4861,7 +5504,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4878,7 +5521,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4895,7 +5538,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4912,7 +5555,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4929,7 +5572,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4946,7 +5589,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4963,7 +5606,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4980,7 +5623,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4997,7 +5640,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5014,7 +5657,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -5031,7 +5674,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5048,7 +5691,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5065,7 +5708,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -5082,7 +5725,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5099,7 +5742,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5116,7 +5759,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5133,7 +5776,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5150,7 +5793,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5167,7 +5810,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5184,7 +5827,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5201,7 +5844,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5218,7 +5861,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5235,7 +5878,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5252,7 +5895,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5269,7 +5912,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5286,7 +5929,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5303,7 +5946,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5320,7 +5963,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5337,7 +5980,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5354,7 +5997,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5371,7 +6014,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5388,7 +6031,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5405,7 +6048,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5422,7 +6065,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5439,7 +6082,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5456,7 +6099,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5473,7 +6116,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5490,7 +6133,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5507,7 +6150,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5524,7 +6167,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5541,7 +6184,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5558,7 +6201,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5575,7 +6218,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5592,7 +6235,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5609,7 +6252,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5626,7 +6269,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5643,7 +6286,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5660,7 +6303,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5677,7 +6320,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5694,7 +6337,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5711,7 +6354,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5728,7 +6371,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5745,7 +6388,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5762,7 +6405,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5779,7 +6422,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5796,7 +6439,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5813,7 +6456,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5830,7 +6473,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5847,7 +6490,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5864,7 +6507,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5881,7 +6524,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5898,7 +6541,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5915,7 +6558,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5932,7 +6575,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5949,7 +6592,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5966,7 +6609,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5983,7 +6626,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6000,7 +6643,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6017,7 +6660,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6034,7 +6677,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6051,7 +6694,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6068,7 +6711,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6085,7 +6728,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6102,7 +6745,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6119,7 +6762,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6136,7 +6779,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6153,7 +6796,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6170,7 +6813,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6187,7 +6830,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6204,7 +6847,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6221,7 +6864,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6238,7 +6881,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6256,7 +6899,7 @@
       <c r="O100" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6264,54 +6907,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C100" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D100" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED53957-524B-1E48-8DA6-AE92E011EA1E}">
-  <dimension ref="A1:O98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED53957-524B-1E48-8DA6-AE92E011EA1E}">
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="28.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="20.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6342,7 +6985,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -6361,7 +7004,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -6378,7 +7021,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -6423,7 +7066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>542</v>
       </c>
@@ -6448,7 +7091,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -6471,7 +7114,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -6494,7 +7137,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>538</v>
       </c>
@@ -6519,7 +7162,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -6544,7 +7187,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -6567,7 +7210,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -6584,7 +7227,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -6601,7 +7244,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -6618,7 +7261,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -6635,7 +7278,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -6652,7 +7295,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -6669,7 +7312,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -6686,7 +7329,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6703,7 +7346,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6720,7 +7363,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6737,7 +7380,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6754,7 +7397,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6771,7 +7414,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6788,7 +7431,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6805,7 +7448,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6822,7 +7465,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="8"/>
       <c r="C26" s="13"/>
@@ -6839,7 +7482,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6856,7 +7499,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -6873,7 +7516,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6890,7 +7533,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6907,7 +7550,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6924,7 +7567,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6941,7 +7584,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6958,7 +7601,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6975,7 +7618,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6992,7 +7635,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -7009,7 +7652,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -7026,7 +7669,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -7043,7 +7686,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -7060,7 +7703,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -7077,7 +7720,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -7094,7 +7737,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -7111,7 +7754,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -7128,7 +7771,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -7145,7 +7788,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -7162,7 +7805,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -7179,7 +7822,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -7196,7 +7839,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -7213,7 +7856,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -7230,7 +7873,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -7247,7 +7890,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -7264,7 +7907,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -7281,7 +7924,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -7298,7 +7941,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -7315,7 +7958,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -7332,7 +7975,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -7349,7 +7992,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -7366,7 +8009,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -7383,7 +8026,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -7400,7 +8043,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -7417,7 +8060,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -7434,7 +8077,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -7451,7 +8094,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -7468,7 +8111,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -7485,7 +8128,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -7502,7 +8145,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -7519,7 +8162,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -7536,7 +8179,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -7553,7 +8196,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -7570,7 +8213,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -7587,7 +8230,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -7604,7 +8247,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -7621,7 +8264,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -7638,7 +8281,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -7655,7 +8298,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -7672,7 +8315,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -7689,7 +8332,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -7706,7 +8349,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -7723,7 +8366,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -7740,7 +8383,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -7757,7 +8400,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -7774,7 +8417,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -7791,7 +8434,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -7808,7 +8451,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -7825,7 +8468,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -7842,7 +8485,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -7859,7 +8502,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -7876,7 +8519,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -7893,7 +8536,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -7910,7 +8553,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -7927,7 +8570,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -7944,7 +8587,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -7961,7 +8604,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -7978,7 +8621,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -7995,7 +8638,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -8012,7 +8655,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -8029,7 +8672,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -8046,7 +8689,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -8064,7 +8707,7 @@
       <c r="O98" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -8072,54 +8715,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D98" xr:uid="{7F7F5E95-216C-E642-A7D9-8C5F724BF679}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D98" type="list" xr:uid="{7F7F5E95-216C-E642-A7D9-8C5F724BF679}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C98" xr:uid="{68F5020A-6055-B24A-A52D-DEB5293C9E62}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C98" type="list" xr:uid="{68F5020A-6055-B24A-A52D-DEB5293C9E62}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF3D09-CB1B-9940-B873-4E0BFB6CF489}">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF3D09-CB1B-9940-B873-4E0BFB6CF489}">
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="28.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="20.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -8150,7 +8793,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -8169,7 +8812,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -8186,7 +8829,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -8231,7 +8874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>550</v>
       </c>
@@ -8256,7 +8899,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -8279,7 +8922,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -8302,7 +8945,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>551</v>
       </c>
@@ -8327,7 +8970,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -8344,7 +8987,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -8361,7 +9004,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -8378,7 +9021,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -8395,7 +9038,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -8412,7 +9055,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -8429,7 +9072,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -8446,7 +9089,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -8463,7 +9106,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -8480,7 +9123,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -8497,7 +9140,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -8514,7 +9157,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -8531,7 +9174,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -8548,7 +9191,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -8565,7 +9208,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -8582,7 +9225,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -8599,7 +9242,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="8"/>
       <c r="C25" s="13"/>
@@ -8616,7 +9259,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -8633,7 +9276,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -8650,7 +9293,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -8667,7 +9310,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -8684,7 +9327,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -8701,7 +9344,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -8718,7 +9361,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -8735,7 +9378,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -8752,7 +9395,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -8769,7 +9412,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -8786,7 +9429,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -8803,7 +9446,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -8820,7 +9463,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -8837,7 +9480,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -8854,7 +9497,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -8871,7 +9514,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -8888,7 +9531,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -8905,7 +9548,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -8922,7 +9565,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -8939,7 +9582,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -8956,7 +9599,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -8973,7 +9616,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -8990,7 +9633,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -9007,7 +9650,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -9024,7 +9667,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -9041,7 +9684,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -9058,7 +9701,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -9075,7 +9718,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -9092,7 +9735,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -9109,7 +9752,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -9126,7 +9769,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -9143,7 +9786,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -9160,7 +9803,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -9177,7 +9820,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -9194,7 +9837,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -9211,7 +9854,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -9228,7 +9871,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -9245,7 +9888,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -9262,7 +9905,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -9279,7 +9922,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -9296,7 +9939,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -9313,7 +9956,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -9330,7 +9973,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -9347,7 +9990,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -9364,7 +10007,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -9381,7 +10024,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -9398,7 +10041,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -9415,7 +10058,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -9432,7 +10075,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -9449,7 +10092,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -9466,7 +10109,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -9483,7 +10126,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -9500,7 +10143,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -9517,7 +10160,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -9534,7 +10177,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -9551,7 +10194,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -9568,7 +10211,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -9585,7 +10228,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -9602,7 +10245,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -9619,7 +10262,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -9636,7 +10279,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -9653,7 +10296,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -9670,7 +10313,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -9687,7 +10330,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -9704,7 +10347,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -9721,7 +10364,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -9738,7 +10381,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -9755,7 +10398,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -9772,7 +10415,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -9789,7 +10432,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -9806,7 +10449,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -9823,7 +10466,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -9841,7 +10484,7 @@
       <c r="O97" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9849,54 +10492,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C97" xr:uid="{23036D10-F215-1849-BAB9-3B7733815C55}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C97" type="list" xr:uid="{23036D10-F215-1849-BAB9-3B7733815C55}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D97" xr:uid="{9B682889-3221-3F4E-A222-9DF1F3C64D08}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D97" type="list" xr:uid="{9B682889-3221-3F4E-A222-9DF1F3C64D08}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0903DDEA-1FDF-A341-B9FE-28A5CC62B0DF}">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0903DDEA-1FDF-A341-B9FE-28A5CC62B0DF}">
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:J7"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="28.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.33203125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="20.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="51.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -9927,7 +10570,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -9946,7 +10589,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -9963,7 +10606,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -10008,7 +10651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>556</v>
       </c>
@@ -10033,7 +10676,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -10056,7 +10699,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>560</v>
@@ -10083,7 +10726,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>557</v>
       </c>
@@ -10108,7 +10751,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -10131,7 +10774,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -10148,7 +10791,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -10165,7 +10808,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -10182,7 +10825,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -10199,7 +10842,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -10216,7 +10859,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -10233,7 +10876,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -10250,7 +10893,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -10267,7 +10910,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -10284,7 +10927,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -10301,7 +10944,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -10318,7 +10961,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -10335,7 +10978,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -10352,7 +10995,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -10369,7 +11012,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -10386,7 +11029,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="8"/>
       <c r="C25" s="13"/>
@@ -10403,7 +11046,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -10420,7 +11063,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -10437,7 +11080,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -10454,7 +11097,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -10471,7 +11114,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -10488,7 +11131,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -10505,7 +11148,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -10522,7 +11165,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -10539,7 +11182,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -10556,7 +11199,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -10573,7 +11216,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -10590,7 +11233,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -10607,7 +11250,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -10624,7 +11267,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -10641,7 +11284,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -10658,7 +11301,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -10675,7 +11318,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -10692,7 +11335,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -10709,7 +11352,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -10726,7 +11369,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -10743,7 +11386,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -10760,7 +11403,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -10777,7 +11420,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -10794,7 +11437,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -10811,7 +11454,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -10828,7 +11471,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -10845,7 +11488,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -10862,7 +11505,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -10879,7 +11522,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -10896,7 +11539,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -10913,7 +11556,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -10930,7 +11573,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -10947,7 +11590,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -10964,7 +11607,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -10981,7 +11624,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -10998,7 +11641,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -11015,7 +11658,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -11032,7 +11675,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -11049,7 +11692,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -11066,7 +11709,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -11083,7 +11726,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -11100,7 +11743,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -11117,7 +11760,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -11134,7 +11777,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -11151,7 +11794,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -11168,7 +11811,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -11185,7 +11828,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -11202,7 +11845,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -11219,7 +11862,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -11236,7 +11879,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -11253,7 +11896,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -11270,7 +11913,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -11287,7 +11930,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -11304,7 +11947,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -11321,7 +11964,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -11338,7 +11981,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -11355,7 +11998,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -11372,7 +12015,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -11389,7 +12032,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -11406,7 +12049,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -11423,7 +12066,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -11440,7 +12083,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -11457,7 +12100,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -11474,7 +12117,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -11491,7 +12134,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -11508,7 +12151,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -11525,7 +12168,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -11542,7 +12185,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -11559,7 +12202,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -11576,7 +12219,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -11593,7 +12236,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -11610,7 +12253,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -11628,7 +12271,7 @@
       <c r="O97" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11636,54 +12279,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D97" xr:uid="{9F2AC27B-135C-B94B-97D7-D13EC26C62B0}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D97" type="list" xr:uid="{9F2AC27B-135C-B94B-97D7-D13EC26C62B0}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C97" xr:uid="{9239A80C-E4A8-EA49-9896-BFFE091050F1}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C97" type="list" xr:uid="{9239A80C-E4A8-EA49-9896-BFFE091050F1}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11A9464-AADF-7445-85AF-F02B5A8574B8}">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11A9464-AADF-7445-85AF-F02B5A8574B8}">
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="28.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="51.33203125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="11.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="24.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="23.5" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="51.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -11714,7 +12357,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -11733,7 +12376,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -11750,7 +12393,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -11795,7 +12438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>565</v>
       </c>
@@ -11820,7 +12463,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -11843,7 +12486,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -11866,7 +12509,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>566</v>
       </c>
@@ -11893,7 +12536,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -11920,7 +12563,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -11943,7 +12586,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>574</v>
       </c>
@@ -11968,7 +12611,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -11991,7 +12634,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -12008,7 +12651,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -12025,7 +12668,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -12042,7 +12685,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -12059,7 +12702,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -12076,7 +12719,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -12093,7 +12736,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -12110,7 +12753,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -12127,7 +12770,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -12144,7 +12787,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -12161,7 +12804,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -12178,7 +12821,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -12195,7 +12838,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="8"/>
       <c r="C25" s="13"/>
@@ -12212,7 +12855,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -12229,7 +12872,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -12246,7 +12889,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -12263,7 +12906,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -12280,7 +12923,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -12297,7 +12940,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -12314,7 +12957,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -12331,7 +12974,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -12348,7 +12991,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -12365,7 +13008,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -12382,7 +13025,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -12399,7 +13042,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -12416,7 +13059,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -12433,7 +13076,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -12450,7 +13093,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -12467,7 +13110,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -12484,7 +13127,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -12501,7 +13144,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -12518,7 +13161,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -12535,7 +13178,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -12552,7 +13195,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -12569,7 +13212,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -12586,7 +13229,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -12603,7 +13246,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -12620,7 +13263,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -12637,7 +13280,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -12654,7 +13297,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -12671,7 +13314,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -12688,7 +13331,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -12705,7 +13348,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -12722,7 +13365,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -12739,7 +13382,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -12756,7 +13399,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -12773,7 +13416,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -12790,7 +13433,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -12807,7 +13450,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -12824,7 +13467,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -12841,7 +13484,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -12858,7 +13501,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -12875,7 +13518,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -12892,7 +13535,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -12909,7 +13552,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -12926,7 +13569,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -12943,7 +13586,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -12960,7 +13603,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -12977,7 +13620,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -12994,7 +13637,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -13011,7 +13654,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -13028,7 +13671,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -13045,7 +13688,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -13062,7 +13705,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -13079,7 +13722,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -13096,7 +13739,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -13113,7 +13756,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -13130,7 +13773,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -13147,7 +13790,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -13164,7 +13807,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -13181,7 +13824,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -13198,7 +13841,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -13215,7 +13858,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -13232,7 +13875,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -13249,7 +13892,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -13266,7 +13909,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -13283,7 +13926,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -13300,7 +13943,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -13317,7 +13960,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -13334,7 +13977,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -13351,7 +13994,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -13368,7 +14011,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -13385,7 +14028,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -13402,7 +14045,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -13419,7 +14062,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -13437,7 +14080,7 @@
       <c r="O97" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -13445,24 +14088,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C97" xr:uid="{FAD305CB-86D2-AF4A-9B37-4C1A87CA4885}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C97" type="list" xr:uid="{FAD305CB-86D2-AF4A-9B37-4C1A87CA4885}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D97" xr:uid="{874D5C32-BCD6-324B-AC89-39ED8E5735B4}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D97" type="list" xr:uid="{874D5C32-BCD6-324B-AC89-39ED8E5735B4}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{C80E1E89-B1A1-0B4D-991F-771FD0D2A970}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,11 +24,11 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -49,13 +49,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1813,6 +1814,21 @@
   </si>
   <si>
     <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1820,7 +1836,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1998,8 +2014,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2171,8 +2490,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -2536,6 +3314,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2543,7 +4299,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2676,52 +4432,196 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3166,9 +5066,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3251,21 +5151,24 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3343,21 +5246,24 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3428,22 +5334,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3511,22 +5417,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3585,22 +5491,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>350</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3653,22 +5559,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3715,22 +5621,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3771,22 +5677,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3827,13 +5733,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3868,13 +5774,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3906,13 +5812,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3944,13 +5850,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3979,13 +5885,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4014,13 +5920,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4046,13 +5952,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4078,13 +5984,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4104,13 +6010,13 @@
       <c r="M17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4127,10 +6033,10 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4147,10 +6053,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4167,10 +6073,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4187,10 +6093,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4199,7 +6105,7 @@
         <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>582</v>
       </c>
       <c r="G22" t="s">
         <v>295</v>
@@ -4207,10 +6113,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4219,7 +6125,7 @@
         <v>352</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>286</v>
@@ -4227,10 +6133,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4239,7 +6145,7 @@
         <v>392</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
         <v>275</v>
@@ -4247,19 +6153,19 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>107</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>581</v>
       </c>
       <c r="E25" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
         <v>74</v>
@@ -4267,19 +6173,19 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="G26" t="s">
         <v>278</v>
@@ -4287,19 +6193,19 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>109</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>262</v>
@@ -4307,19 +6213,19 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>110</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="G28" t="s">
         <v>279</v>
@@ -4327,16 +6233,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -4344,117 +6250,123 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>409</v>
       </c>
       <c r="E30" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>223</v>
+      </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4462,7 +6374,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4470,609 +6382,615 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y42" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y43" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y45" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z47" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y48" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z48" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y49" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y50" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z50" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y52" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y53" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y54" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z54" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y55" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z55" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y56" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z56" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y57" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z57" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y58" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z58" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y59" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y60" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z60" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y61" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y62" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y63" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y64" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y65" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y66" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z66" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y67" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z67" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y68" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z68" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y69" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z69" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z70" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y71" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y72" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y73" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y74" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y75" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z75" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y76" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z76" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y77" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z77" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y78" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z78" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y79" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z79" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y80" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z80" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y81" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y82" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z82" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y83" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y84" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y85" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y86" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z86" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y87" t="s">
+        <v>523</v>
+      </c>
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y88" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z88" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y89" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y90" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z90" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y91" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z91" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y92" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z92" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y93" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z93" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y94" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z94" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Y95" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5085,7 +7003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -6933,7 +8851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED53957-524B-1E48-8DA6-AE92E011EA1E}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10518,7 +12436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0903DDEA-1FDF-A341-B9FE-28A5CC62B0DF}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -12305,7 +14223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11A9464-AADF-7445-85AF-F02B5A8574B8}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -34,7 +34,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -49,13 +49,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1829,6 +1829,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1839,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2317,8 +2320,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2949,8 +3053,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4292,6 +4549,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4299,7 +4882,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4576,52 +5159,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5066,7 +5697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5151,24 +5782,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>581</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5246,24 +5874,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>583</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5334,22 +5959,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5417,22 +6042,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5491,22 +6116,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5559,22 +6184,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5621,22 +6246,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5677,22 +6302,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5733,13 +6358,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5774,13 +6399,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5812,13 +6437,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5850,13 +6475,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5885,13 +6510,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5920,13 +6545,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -5952,13 +6577,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -5976,7 +6601,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>586</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -5984,13 +6609,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6008,15 +6633,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6033,10 +6658,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6053,10 +6681,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6073,10 +6701,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6093,10 +6721,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -6113,10 +6741,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6133,10 +6761,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6153,16 +6781,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>581</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -6173,16 +6801,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -6193,16 +6821,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -6213,16 +6841,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -6233,13 +6861,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -6250,13 +6878,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -6264,21 +6892,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6289,7 +6914,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6300,7 +6925,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6311,7 +6936,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6322,7 +6947,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6333,7 +6958,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6344,7 +6969,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6355,7 +6980,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6366,7 +6991,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6374,7 +6999,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6382,7 +7007,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6390,7 +7015,7 @@
       <c r="G42" t="s">
         <v>584</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6398,7 +7023,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6406,7 +7031,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6414,7 +7039,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6422,7 +7047,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6430,7 +7055,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6438,7 +7063,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6446,7 +7071,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6454,7 +7079,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>580</v>
       </c>
     </row>
@@ -6462,7 +7087,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6470,7 +7095,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6478,7 +7103,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6486,7 +7111,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -6494,7 +7119,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6502,7 +7127,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6510,7 +7135,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6518,7 +7143,7 @@
       <c r="G58" t="s">
         <v>585</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6526,7 +7151,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6534,7 +7159,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6542,7 +7167,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6550,7 +7175,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6558,7 +7183,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6566,7 +7191,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6574,7 +7199,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6582,7 +7207,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6590,7 +7215,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6598,7 +7223,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6606,7 +7231,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6614,7 +7239,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6622,7 +7247,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6630,7 +7255,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6638,7 +7263,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6646,7 +7271,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6654,7 +7279,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6662,7 +7287,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6670,7 +7295,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6678,7 +7303,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6686,7 +7311,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6694,7 +7319,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6702,7 +7327,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6710,7 +7335,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6718,7 +7343,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6726,7 +7351,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6734,7 +7359,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6742,7 +7367,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -6750,7 +7375,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6758,7 +7383,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6766,7 +7391,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6774,7 +7399,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6782,7 +7407,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6790,7 +7415,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6798,7 +7423,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6806,7 +7431,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -6814,7 +7439,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6822,7 +7447,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6830,167 +7455,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -28,7 +28,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -50,7 +50,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1832,6 +1832,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1857,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2421,8 +2439,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3206,8 +3527,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -4875,6 +5655,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4882,7 +6640,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5207,52 +6965,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5697,7 +7599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6078,7 +7980,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>590</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -6152,7 +8054,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -6214,7 +8116,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -6276,7 +8178,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -6332,7 +8234,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -6376,7 +8278,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -6417,7 +8319,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -6455,7 +8357,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -6493,7 +8395,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -6528,7 +8430,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -6563,7 +8465,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -6595,7 +8497,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -6627,7 +8529,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -6653,7 +8555,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -6676,7 +8578,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -6696,7 +8598,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -6716,7 +8618,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -6736,7 +8638,7 @@
         <v>582</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -6756,7 +8658,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -6776,13 +8678,13 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>587</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -6796,13 +8698,13 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -6816,13 +8718,13 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -6836,13 +8738,13 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -6856,13 +8758,13 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -6873,13 +8775,13 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -6890,10 +8792,10 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -6901,10 +8803,10 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -6912,10 +8814,10 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -6923,10 +8825,10 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -6934,10 +8836,10 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35">
@@ -6945,10 +8847,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -6956,10 +8858,10 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -6967,10 +8869,10 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -6978,10 +8880,10 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -6989,633 +8891,661 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>584</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>584</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>580</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>585</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -24,39 +24,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1850,6 +1851,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1876,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2742,8 +2761,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3986,8 +4207,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -6633,6 +7160,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6640,7 +7819,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7109,52 +8288,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7599,7 +8874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7624,81 +8899,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7716,81 +8994,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7807,76 +9088,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7890,82 +9171,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -7973,73 +9254,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>590</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -8047,1505 +9328,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>596</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>579</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>586</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>582</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>587</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>584</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>585</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -24,7 +24,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -32,7 +32,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7432" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1869,6 +1869,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1891,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2963,8 +2978,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4513,8 +4730,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="387">
     <border>
       <left/>
       <right/>
@@ -7812,6 +8335,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7819,7 +8994,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8384,52 +9559,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9190,7 +10461,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>602</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -9226,7 +10497,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>603</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -9273,7 +10544,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -9344,7 +10615,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -9406,7 +10677,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -9465,7 +10736,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -9521,7 +10792,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -9565,7 +10836,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -9606,7 +10877,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -9644,7 +10915,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>579</v>
@@ -9682,7 +10953,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -9717,7 +10988,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -9749,7 +11020,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -9781,7 +11052,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>586</v>
@@ -9813,7 +11084,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -9839,7 +11110,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -9856,13 +11127,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>601</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -9876,13 +11147,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -9896,13 +11167,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -9916,13 +11187,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>582</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -9936,13 +11207,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>582</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -9956,13 +11227,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>587</v>
@@ -9976,13 +11247,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -9996,13 +11267,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -10016,13 +11287,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -10036,13 +11307,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -10053,13 +11324,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -10070,10 +11341,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -10084,7 +11358,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -10095,7 +11369,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -10106,7 +11380,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -10117,7 +11391,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -10128,7 +11402,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -10139,7 +11413,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -10150,7 +11424,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -10161,7 +11435,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -10172,7 +11446,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -10182,6 +11456,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -24,13 +24,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -50,7 +50,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7432" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7997" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1884,6 +1884,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1900,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3180,8 +3189,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5036,8 +5146,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="387">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -8987,6 +9250,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8994,7 +9583,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9655,52 +10244,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="303" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="306" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="309" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="312" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="318" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="309" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="321" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10145,7 +10782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10611,6 +11248,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>604</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -11127,7 +11767,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>601</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -11147,7 +11787,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -11167,7 +11807,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -11187,7 +11827,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>582</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -11207,7 +11847,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>582</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -11227,7 +11867,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -11247,7 +11887,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -11267,7 +11907,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -11287,7 +11927,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -11307,7 +11947,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -11324,7 +11964,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -11341,7 +11981,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -11358,7 +11998,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -11369,7 +12009,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -11380,7 +12020,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -11391,7 +12031,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -11402,7 +12042,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -11413,7 +12053,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -11424,7 +12064,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -11435,7 +12075,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -11446,7 +12086,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -11456,9 +12096,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -11932,186 +12569,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>595</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>589</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7997" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8562" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1900,7 +1900,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3290,8 +3290,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5299,8 +5400,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9576,6 +9830,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9583,7 +10163,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10292,52 +10872,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/failures/artifact/script/ScriptTest.xlsx
+++ b/examples/failures/artifact/script/ScriptTest.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8562" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9127" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1900,7 +1900,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3391,8 +3391,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5553,8 +5654,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="483">
     <border>
       <left/>
       <right/>
@@ -10156,6 +10410,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10163,7 +10743,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10920,52 +11500,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="363" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="390" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="402" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
